--- a/resources/experiment 2/metrics/R2/incidence/Neuropatía (INC).xlsx
+++ b/resources/experiment 2/metrics/R2/incidence/Neuropatía (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8438629422871714</v>
+        <v>0.8438629422871712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8438629422871714</v>
+        <v>0.8438629422871712</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8438629422871714</v>
+        <v>0.8438629422871712</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9916516249838302</v>
+        <v>0.9989389549409227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9916516249838302</v>
+        <v>0.9988620154674509</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9916516249838302</v>
+        <v>0.9766110525920233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994455869090174</v>
+        <v>0.9986274321723331</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9994455854738721</v>
+        <v>0.9985390596220008</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994455854738721</v>
+        <v>0.9857545127873539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.965032137380029</v>
+        <v>0.9993620773498155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.965032137380029</v>
+        <v>0.9993742133379425</v>
       </c>
       <c r="D5" t="n">
-        <v>0.965032137380029</v>
+        <v>0.9989092366441256</v>
       </c>
     </row>
   </sheetData>
